--- a/時系列データ/時系列データ_6月.xlsx
+++ b/時系列データ/時系列データ_6月.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takayuki/Document/career/nagoyaU/corona/時系列データ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6836D3-6554-4A4B-91B2-85BEED01D02F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8978D8E7-24B5-5C46-9412-10DB3CFF878A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1740" yWindow="-20540" windowWidth="33600" windowHeight="20540" xr2:uid="{EE9ACDD5-24CB-8440-8AC5-F56592F7D2E3}"/>
   </bookViews>
@@ -631,10 +631,10 @@
   <dimension ref="A1:AS69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y71" sqref="Y71"/>
+      <selection pane="bottomRight" activeCell="AG68" sqref="AG68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -822,12 +822,24 @@
       <c r="Y2" s="2">
         <v>44</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="Z2" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>47</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>47</v>
+      </c>
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:45">
@@ -906,12 +918,24 @@
       <c r="Y3" s="2">
         <v>121</v>
       </c>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
+      <c r="Z3" s="2">
+        <v>121</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>123</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>124</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>125</v>
+      </c>
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:45">
@@ -990,12 +1014,24 @@
       <c r="Y4" s="2">
         <v>349</v>
       </c>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
+      <c r="Z4" s="2">
+        <v>349</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>353</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>353</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>353</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>356</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>359</v>
+      </c>
       <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:45">
@@ -1074,12 +1110,24 @@
       <c r="Y5" s="2">
         <v>607</v>
       </c>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
+      <c r="Z5" s="2">
+        <v>617</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>632</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>644</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>658</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>676</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>700</v>
+      </c>
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:45">
@@ -1158,12 +1206,24 @@
       <c r="Y6" s="2">
         <v>100</v>
       </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
+      <c r="Z6" s="2">
+        <v>101</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>102</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>102</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>103</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>104</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>105</v>
+      </c>
       <c r="AF6" s="2"/>
     </row>
     <row r="7" spans="1:45">
@@ -1242,12 +1302,24 @@
       <c r="Y7" s="2">
         <v>178</v>
       </c>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
+      <c r="Z7" s="2">
+        <v>178</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>179</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>179</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>180</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>182</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>182</v>
+      </c>
       <c r="AF7" s="2"/>
     </row>
     <row r="8" spans="1:45">
@@ -1326,12 +1398,24 @@
       <c r="Y8" s="2">
         <v>156</v>
       </c>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
+      <c r="Z8" s="2">
+        <v>157</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>158</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>161</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>161</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>161</v>
+      </c>
       <c r="AF8" s="2"/>
     </row>
     <row r="9" spans="1:45">
@@ -1410,12 +1494,24 @@
       <c r="Y9" s="2">
         <v>235</v>
       </c>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="Z9" s="2">
+        <v>235</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>236</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>238</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>239</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>243</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>243</v>
+      </c>
       <c r="AF9" s="2"/>
     </row>
     <row r="10" spans="1:45">
@@ -1494,12 +1590,24 @@
       <c r="Y10" s="2">
         <v>196</v>
       </c>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
+      <c r="Z10" s="2">
+        <v>197</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>198</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>199</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>199</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>199</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>199</v>
+      </c>
       <c r="AF10" s="2"/>
     </row>
     <row r="11" spans="1:45">
@@ -1578,12 +1686,24 @@
       <c r="Y11" s="2">
         <v>178</v>
       </c>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+      <c r="Z11" s="2">
+        <v>179</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>179</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>179</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>179</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>180</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>180</v>
+      </c>
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="1:45">
@@ -1662,12 +1782,24 @@
       <c r="Y12" s="2">
         <v>257</v>
       </c>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
+      <c r="Z12" s="2">
+        <v>259</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>259</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>260</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>263</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>263</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>263</v>
+      </c>
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:45">
@@ -1746,12 +1878,24 @@
       <c r="Y13" s="2">
         <v>518</v>
       </c>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
+      <c r="Z13" s="2">
+        <v>522</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>525</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>529</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>529</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>530</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>531</v>
+      </c>
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:45">
@@ -1830,12 +1974,24 @@
       <c r="Y14" s="2">
         <v>198</v>
       </c>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
+      <c r="Z14" s="2">
+        <v>200</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>200</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>201</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>204</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>205</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>205</v>
+      </c>
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:45">
@@ -1914,12 +2070,24 @@
       <c r="Y15" s="2">
         <v>272</v>
       </c>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
+      <c r="Z15" s="2">
+        <v>273</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>273</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>278</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>282</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>284</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>292</v>
+      </c>
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:45">
@@ -1998,12 +2166,24 @@
       <c r="Y16" s="2">
         <v>272</v>
       </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
+      <c r="Z16" s="2">
+        <v>272</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>273</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>277</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>277</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>279</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>280</v>
+      </c>
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32">
@@ -2082,12 +2262,24 @@
       <c r="Y17" s="2">
         <v>178</v>
       </c>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
+      <c r="Z17" s="2">
+        <v>181</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>188</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>194</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>198</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>205</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>209</v>
+      </c>
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="1:32">
@@ -2166,12 +2358,24 @@
       <c r="Y18" s="2">
         <v>101</v>
       </c>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
+      <c r="Z18" s="2">
+        <v>103</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>104</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>106</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>106</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>107</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>107</v>
+      </c>
       <c r="AF18" s="2"/>
     </row>
     <row r="19" spans="1:32">
@@ -2250,12 +2454,24 @@
       <c r="Y19" s="2">
         <v>85</v>
       </c>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
+      <c r="Z19" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>90</v>
+      </c>
       <c r="AF19" s="2"/>
     </row>
     <row r="20" spans="1:32">
@@ -2334,12 +2550,24 @@
       <c r="Y20" s="2">
         <v>165</v>
       </c>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
+      <c r="Z20" s="2">
+        <v>168</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>169</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>173</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>179</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>180</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>181</v>
+      </c>
       <c r="AF20" s="2"/>
     </row>
     <row r="21" spans="1:32">
@@ -2418,12 +2646,24 @@
       <c r="Y21" s="2">
         <v>294</v>
       </c>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
+      <c r="Z21" s="2">
+        <v>296</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>298</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>299</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>299</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>304</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>306</v>
+      </c>
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32">
@@ -2502,12 +2742,24 @@
       <c r="Y22" s="2">
         <v>165</v>
       </c>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
+      <c r="Z22" s="2">
+        <v>169</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>170</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>174</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>178</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>179</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>179</v>
+      </c>
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32">
@@ -2586,12 +2838,24 @@
       <c r="Y23" s="2">
         <v>140</v>
       </c>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
+      <c r="Z23" s="2">
+        <v>141</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>141</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>141</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>141</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>141</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>141</v>
+      </c>
       <c r="AF23" s="2"/>
     </row>
     <row r="24" spans="1:32">
@@ -2670,12 +2934,24 @@
       <c r="Y24" s="2">
         <v>155</v>
       </c>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
+      <c r="Z24" s="2">
+        <v>158</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>158</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>159</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>162</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>163</v>
+      </c>
+      <c r="AE24" s="2">
+        <v>163</v>
+      </c>
       <c r="AF24" s="2"/>
     </row>
     <row r="25" spans="1:32">
@@ -2754,12 +3030,24 @@
       <c r="Y25" s="2">
         <v>49</v>
       </c>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
+      <c r="Z25" s="2">
+        <v>49</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>51</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>51</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>51</v>
+      </c>
+      <c r="AD25" s="2">
+        <v>51</v>
+      </c>
+      <c r="AE25" s="2">
+        <v>51</v>
+      </c>
       <c r="AF25" s="2"/>
     </row>
     <row r="26" spans="1:32">
@@ -2838,12 +3126,24 @@
       <c r="Y26" s="2">
         <v>17</v>
       </c>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
+      <c r="Z26" s="2">
+        <v>18</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>18</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>18</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE26" s="2">
+        <v>19</v>
+      </c>
       <c r="AF26" s="2"/>
     </row>
     <row r="27" spans="1:32">
@@ -2922,12 +3222,24 @@
       <c r="Y27" s="2">
         <v>22</v>
       </c>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
+      <c r="Z27" s="2">
+        <v>22</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>22</v>
+      </c>
       <c r="AF27" s="2"/>
     </row>
     <row r="28" spans="1:32">
@@ -3006,12 +3318,24 @@
       <c r="Y28" s="2">
         <v>30</v>
       </c>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
-      <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
+      <c r="Z28" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>30</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>30</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>32</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>32</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>34</v>
+      </c>
       <c r="AF28" s="2"/>
     </row>
     <row r="29" spans="1:32">
@@ -3090,12 +3414,24 @@
       <c r="Y29" s="2">
         <v>9</v>
       </c>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
+      <c r="Z29" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>10</v>
+      </c>
       <c r="AF29" s="2"/>
     </row>
     <row r="30" spans="1:32">
@@ -3174,12 +3510,24 @@
       <c r="Y30" s="2">
         <v>79</v>
       </c>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-      <c r="AB30" s="2"/>
-      <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
+      <c r="Z30" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>79</v>
+      </c>
       <c r="AF30" s="2"/>
     </row>
     <row r="31" spans="1:32">
@@ -3258,12 +3606,24 @@
       <c r="Y31" s="2">
         <v>10</v>
       </c>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
+      <c r="Z31" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB31" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>10</v>
+      </c>
       <c r="AF31" s="2"/>
     </row>
     <row r="32" spans="1:32">
@@ -3342,12 +3702,24 @@
       <c r="Y32" s="2">
         <v>37</v>
       </c>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
+      <c r="Z32" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>38</v>
+      </c>
       <c r="AF32" s="2"/>
     </row>
     <row r="33" spans="1:32">
@@ -3426,12 +3798,24 @@
       <c r="Y33" s="2">
         <v>56</v>
       </c>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
+      <c r="Z33" s="2">
+        <v>57</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>58</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>58</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>58</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>59</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>60</v>
+      </c>
       <c r="AF33" s="2"/>
     </row>
     <row r="34" spans="1:32">
@@ -3510,12 +3894,24 @@
       <c r="Y34" s="2">
         <v>34</v>
       </c>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
+      <c r="Z34" s="2">
+        <v>34</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>34</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE34" s="2">
+        <v>36</v>
+      </c>
       <c r="AF34" s="2"/>
     </row>
     <row r="35" spans="1:32">
@@ -3594,12 +3990,24 @@
       <c r="Y35" s="2">
         <v>27</v>
       </c>
-      <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
+      <c r="Z35" s="2">
+        <v>27</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>27</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>27</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>27</v>
+      </c>
       <c r="AF35" s="2"/>
     </row>
     <row r="36" spans="1:32">
@@ -3678,12 +4086,24 @@
       <c r="Y36" s="2">
         <v>20</v>
       </c>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
+      <c r="Z36" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>20</v>
+      </c>
       <c r="AF36" s="2"/>
     </row>
     <row r="37" spans="1:32">
@@ -3762,12 +4182,24 @@
       <c r="Y37" s="2">
         <v>15</v>
       </c>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
+      <c r="Z37" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>16</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>16</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>16</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>16</v>
+      </c>
       <c r="AF37" s="2"/>
     </row>
     <row r="38" spans="1:32">
@@ -3846,12 +4278,24 @@
       <c r="Y38" s="2">
         <v>14</v>
       </c>
-      <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-      <c r="AB38" s="2"/>
-      <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
+      <c r="Z38" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>15</v>
+      </c>
+      <c r="AE38" s="2">
+        <v>15</v>
+      </c>
       <c r="AF38" s="2"/>
     </row>
     <row r="39" spans="1:32">
@@ -3930,12 +4374,24 @@
       <c r="Y39" s="2">
         <v>8</v>
       </c>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
+      <c r="Z39" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>8</v>
+      </c>
       <c r="AF39" s="2"/>
     </row>
     <row r="40" spans="1:32">
@@ -4014,12 +4470,24 @@
       <c r="Y40" s="2">
         <v>2</v>
       </c>
-      <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-      <c r="AB40" s="2"/>
-      <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
+      <c r="Z40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>2</v>
+      </c>
       <c r="AF40" s="2"/>
     </row>
     <row r="41" spans="1:32">
@@ -4098,12 +4566,24 @@
       <c r="Y41" s="2">
         <v>25</v>
       </c>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
+      <c r="Z41" s="2">
+        <v>26</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>26</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>26</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>27</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>27</v>
+      </c>
       <c r="AF41" s="2"/>
     </row>
     <row r="42" spans="1:32">
@@ -4182,12 +4662,24 @@
       <c r="Y42" s="2">
         <v>8</v>
       </c>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-      <c r="AB42" s="2"/>
-      <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
+      <c r="Z42" s="2">
+        <v>8</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB42" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>8</v>
+      </c>
+      <c r="AD42" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>8</v>
+      </c>
       <c r="AF42" s="2"/>
     </row>
     <row r="43" spans="1:32">
@@ -4266,12 +4758,24 @@
       <c r="Y43" s="2">
         <v>15</v>
       </c>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
+      <c r="Z43" s="2">
+        <v>15</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>15</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>16</v>
+      </c>
+      <c r="AE43" s="2">
+        <v>16</v>
+      </c>
       <c r="AF43" s="2"/>
     </row>
     <row r="44" spans="1:32">
@@ -4350,12 +4854,24 @@
       <c r="Y44" s="2">
         <v>16</v>
       </c>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
+      <c r="Z44" s="2">
+        <v>16</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>16</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>17</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>17</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>17</v>
+      </c>
       <c r="AF44" s="2"/>
     </row>
     <row r="45" spans="1:32">
@@ -4434,12 +4950,24 @@
       <c r="Y45" s="2">
         <v>2</v>
       </c>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-      <c r="AB45" s="2"/>
-      <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
+      <c r="Z45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE45" s="2">
+        <v>2</v>
+      </c>
       <c r="AF45" s="2"/>
     </row>
     <row r="46" spans="1:32">
@@ -4518,12 +5046,24 @@
       <c r="Y46" s="2">
         <v>38</v>
       </c>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-      <c r="AB46" s="2"/>
-      <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="2"/>
+      <c r="Z46" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD46" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE46" s="2">
+        <v>38</v>
+      </c>
       <c r="AF46" s="2"/>
     </row>
     <row r="47" spans="1:32">
@@ -4602,12 +5142,24 @@
       <c r="Y47" s="2">
         <v>11</v>
       </c>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
+      <c r="Z47" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>11</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>11</v>
+      </c>
+      <c r="AD47" s="2">
+        <v>11</v>
+      </c>
+      <c r="AE47" s="2">
+        <v>12</v>
+      </c>
       <c r="AF47" s="2"/>
     </row>
     <row r="48" spans="1:32">
@@ -4686,12 +5238,24 @@
       <c r="Y48" s="2">
         <v>5</v>
       </c>
-      <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-      <c r="AB48" s="2"/>
-      <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
+      <c r="Z48" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>5</v>
+      </c>
       <c r="AF48" s="2"/>
     </row>
     <row r="49" spans="1:32">
@@ -4770,12 +5334,24 @@
       <c r="Y49" s="2">
         <v>10</v>
       </c>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
+      <c r="Z49" s="2">
+        <v>10</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>10</v>
+      </c>
+      <c r="AD49" s="2">
+        <v>10</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>10</v>
+      </c>
       <c r="AF49" s="2"/>
     </row>
     <row r="50" spans="1:32">
@@ -4854,12 +5430,24 @@
       <c r="Y50" s="2">
         <v>52</v>
       </c>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
+      <c r="Z50" s="2">
+        <v>52</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>52</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>53</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>54</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>54</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>54</v>
+      </c>
       <c r="AF50" s="2"/>
     </row>
     <row r="51" spans="1:32">
@@ -4938,12 +5526,24 @@
       <c r="Y51" s="2">
         <v>2</v>
       </c>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
+      <c r="Z51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>2</v>
+      </c>
       <c r="AF51" s="2"/>
     </row>
     <row r="52" spans="1:32">
@@ -5022,12 +5622,24 @@
       <c r="Y52" s="2">
         <v>1</v>
       </c>
-      <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-      <c r="AB52" s="2"/>
-      <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
+      <c r="Z52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>1</v>
+      </c>
       <c r="AF52" s="2"/>
     </row>
     <row r="53" spans="1:32">
@@ -5106,12 +5718,24 @@
       <c r="Y53" s="2">
         <v>0</v>
       </c>
-      <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-      <c r="AB53" s="2"/>
-      <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
+      <c r="Z53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>0</v>
+      </c>
       <c r="AF53" s="2"/>
     </row>
     <row r="54" spans="1:32">
@@ -5190,12 +5814,24 @@
       <c r="Y54" s="2">
         <v>0</v>
       </c>
-      <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-      <c r="AB54" s="2"/>
-      <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
+      <c r="Z54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>0</v>
+      </c>
       <c r="AF54" s="2"/>
     </row>
     <row r="55" spans="1:32">
@@ -5274,12 +5910,24 @@
       <c r="Y55" s="2">
         <v>0</v>
       </c>
-      <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-      <c r="AB55" s="2"/>
-      <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
+      <c r="Z55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>0</v>
+      </c>
       <c r="AF55" s="2"/>
     </row>
     <row r="56" spans="1:32">
@@ -5358,12 +6006,24 @@
       <c r="Y56" s="2">
         <v>0</v>
       </c>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
+      <c r="Z56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="2">
+        <v>0</v>
+      </c>
       <c r="AF56" s="2"/>
     </row>
     <row r="57" spans="1:32">
@@ -5442,12 +6102,24 @@
       <c r="Y57" s="2">
         <v>0</v>
       </c>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-      <c r="AB57" s="2"/>
-      <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
+      <c r="Z57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="2">
+        <v>0</v>
+      </c>
       <c r="AF57" s="2"/>
     </row>
     <row r="58" spans="1:32">
@@ -5526,12 +6198,24 @@
       <c r="Y58" s="2">
         <v>0</v>
       </c>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
+      <c r="Z58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="2">
+        <v>0</v>
+      </c>
       <c r="AF58" s="2"/>
     </row>
     <row r="59" spans="1:32">
@@ -5610,12 +6294,24 @@
       <c r="Y59" s="2">
         <v>0</v>
       </c>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="2"/>
+      <c r="Z59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="2">
+        <v>0</v>
+      </c>
       <c r="AF59" s="2"/>
     </row>
     <row r="60" spans="1:32">
@@ -5694,12 +6390,24 @@
       <c r="Y60" s="2">
         <v>1</v>
       </c>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="2"/>
+      <c r="Z60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="2">
+        <v>1</v>
+      </c>
       <c r="AF60" s="2"/>
     </row>
     <row r="61" spans="1:32">
@@ -5778,12 +6486,24 @@
       <c r="Y61" s="2">
         <v>0</v>
       </c>
-      <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="2"/>
+      <c r="Z61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="2">
+        <v>0</v>
+      </c>
       <c r="AF61" s="2"/>
     </row>
     <row r="62" spans="1:32">
@@ -5862,12 +6582,24 @@
       <c r="Y62" s="2">
         <v>0</v>
       </c>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
-      <c r="AC62" s="2"/>
-      <c r="AD62" s="2"/>
-      <c r="AE62" s="2"/>
+      <c r="Z62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="2">
+        <v>0</v>
+      </c>
       <c r="AF62" s="2"/>
     </row>
     <row r="63" spans="1:32">
@@ -5946,12 +6678,24 @@
       <c r="Y63" s="2">
         <v>0</v>
       </c>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
-      <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="2"/>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="2">
+        <v>0</v>
+      </c>
       <c r="AF63" s="2"/>
     </row>
     <row r="64" spans="1:32">
@@ -6030,12 +6774,24 @@
       <c r="Y64" s="2">
         <v>238</v>
       </c>
-      <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-      <c r="AB64" s="2"/>
-      <c r="AC64" s="2"/>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="2"/>
+      <c r="Z64" s="2">
+        <v>246</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>248</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>250</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>253</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>257</v>
+      </c>
+      <c r="AE64" s="2">
+        <v>260</v>
+      </c>
       <c r="AF64" s="2"/>
     </row>
     <row r="65" spans="1:32">
@@ -6114,12 +6870,24 @@
       <c r="Y65" s="2">
         <v>23</v>
       </c>
-      <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-      <c r="AB65" s="2"/>
-      <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="2"/>
+      <c r="Z65" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>23</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>23</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>23</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>23</v>
+      </c>
+      <c r="AE65" s="2">
+        <v>23</v>
+      </c>
       <c r="AF65" s="2"/>
     </row>
     <row r="66" spans="1:32">
@@ -6268,10 +7036,24 @@
       <c r="Y68" s="2">
         <v>55</v>
       </c>
-      <c r="AB68" s="2"/>
-      <c r="AC68" s="2"/>
-      <c r="AD68" s="2"/>
-      <c r="AE68" s="2"/>
+      <c r="Z68" s="2">
+        <v>48</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>57</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>60</v>
+      </c>
+      <c r="AD68" s="2">
+        <v>58</v>
+      </c>
+      <c r="AE68" s="2">
+        <v>54</v>
+      </c>
       <c r="AF68" s="2"/>
     </row>
     <row r="69" spans="1:32" ht="17" customHeight="1"/>
